--- a/tools/yolov4.xlsx
+++ b/tools/yolov4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maruyama/Projects/private/public/yolo_various_platforms/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E79D4-70A7-F040-A308-E513AFD71069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423B60CF-384E-2B4D-AE10-1929991B4FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="520" windowWidth="27500" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="-16740" windowWidth="27500" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yolov4" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,8 +639,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -756,114 +762,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="5"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color theme="5"/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
+      <bottom style="thin">
+        <color theme="3"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="5"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="5"/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="7"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="9"/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -995,69 +931,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1416,7 +1331,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="K150" sqref="K150"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1424,7 +1341,7 @@
     <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" thickBot="1">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1458,16 +1375,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21" thickBot="1">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1495,11 +1412,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1534,10 +1451,10 @@
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -1571,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="3"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -1587,9 +1504,9 @@
         <v>35</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="21" thickBot="1">
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1621,7 +1538,7 @@
         <v>35</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="3"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -1651,11 +1568,11 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -1685,11 +1602,11 @@
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" thickBot="1">
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1702,9 +1619,9 @@
       <c r="J9">
         <v>-3</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -1738,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -1754,9 +1671,9 @@
         <v>37</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="21" thickBot="1">
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1787,8 +1704,8 @@
       <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="3"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -1821,10 +1738,10 @@
       <c r="L13" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -1858,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -1874,9 +1791,9 @@
         <v>35</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="21" thickBot="1">
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1908,7 +1825,7 @@
         <v>35</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
@@ -1938,11 +1855,11 @@
       <c r="I17">
         <v>15</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -1972,11 +1889,11 @@
       <c r="I18">
         <v>16</v>
       </c>
-      <c r="L18" s="13"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="21" thickBot="1">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1989,9 +1906,9 @@
       <c r="J19">
         <v>-3</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -2021,11 +1938,11 @@
       <c r="I20">
         <v>18</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -2055,11 +1972,11 @@
       <c r="I21">
         <v>19</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="21" thickBot="1">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2072,9 +1989,9 @@
       <c r="J22">
         <v>-3</v>
       </c>
-      <c r="L22" s="14"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -2108,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="M23" s="7"/>
-      <c r="N23" s="3"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -2124,9 +2041,9 @@
         <v>37</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="21" thickBot="1">
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2157,8 +2074,8 @@
       <c r="L25" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="3"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
@@ -2191,10 +2108,10 @@
       <c r="L26" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
@@ -2228,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -2244,9 +2161,9 @@
         <v>35</v>
       </c>
       <c r="M28" s="7"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="21" thickBot="1">
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +2195,7 @@
         <v>35</v>
       </c>
       <c r="M29" s="7"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -2308,11 +2225,11 @@
       <c r="I30">
         <v>28</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M30" s="7"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
@@ -2342,11 +2259,11 @@
       <c r="I31">
         <v>29</v>
       </c>
-      <c r="L31" s="13"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1">
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2359,9 +2276,9 @@
       <c r="J32">
         <v>-3</v>
       </c>
-      <c r="L32" s="14"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="3"/>
+      <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
@@ -2391,11 +2308,11 @@
       <c r="I33">
         <v>31</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
@@ -2425,11 +2342,11 @@
       <c r="I34">
         <v>32</v>
       </c>
-      <c r="L34" s="13"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="21" thickBot="1">
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2442,9 +2359,9 @@
       <c r="J35">
         <v>-3</v>
       </c>
-      <c r="L35" s="14"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
@@ -2474,11 +2391,11 @@
       <c r="I36">
         <v>34</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M36" s="7"/>
-      <c r="N36" s="3"/>
+      <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
@@ -2508,11 +2425,11 @@
       <c r="I37">
         <v>35</v>
       </c>
-      <c r="L37" s="13"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="21" thickBot="1">
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2525,9 +2442,9 @@
       <c r="J38">
         <v>-3</v>
       </c>
-      <c r="L38" s="14"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
@@ -2557,11 +2474,11 @@
       <c r="I39">
         <v>37</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M39" s="7"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="9"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -2591,11 +2508,11 @@
       <c r="I40">
         <v>38</v>
       </c>
-      <c r="L40" s="13"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="21" thickBot="1">
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2608,9 +2525,9 @@
       <c r="J41">
         <v>-3</v>
       </c>
-      <c r="L41" s="14"/>
+      <c r="L41" s="5"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
@@ -2640,11 +2557,11 @@
       <c r="I42">
         <v>40</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M42" s="7"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
@@ -2674,11 +2591,11 @@
       <c r="I43">
         <v>41</v>
       </c>
-      <c r="L43" s="13"/>
+      <c r="L43" s="5"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="21" thickBot="1">
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2691,9 +2608,9 @@
       <c r="J44">
         <v>-3</v>
       </c>
-      <c r="L44" s="14"/>
+      <c r="L44" s="5"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="3"/>
+      <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
@@ -2723,11 +2640,11 @@
       <c r="I45">
         <v>43</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="3"/>
+      <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
@@ -2757,11 +2674,11 @@
       <c r="I46">
         <v>44</v>
       </c>
-      <c r="L46" s="13"/>
+      <c r="L46" s="5"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" ht="21" thickBot="1">
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2774,9 +2691,9 @@
       <c r="J47">
         <v>-3</v>
       </c>
-      <c r="L47" s="14"/>
+      <c r="L47" s="5"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="3"/>
+      <c r="N47" s="9"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
@@ -2806,11 +2723,11 @@
       <c r="I48">
         <v>46</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="L48" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M48" s="7"/>
-      <c r="N48" s="3"/>
+      <c r="N48" s="9"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
@@ -2840,11 +2757,11 @@
       <c r="I49">
         <v>47</v>
       </c>
-      <c r="L49" s="13"/>
+      <c r="L49" s="5"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" ht="21" thickBot="1">
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2857,9 +2774,9 @@
       <c r="J50">
         <v>-3</v>
       </c>
-      <c r="L50" s="14"/>
+      <c r="L50" s="5"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="3"/>
+      <c r="N50" s="9"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
@@ -2889,11 +2806,11 @@
       <c r="I51">
         <v>49</v>
       </c>
-      <c r="L51" s="12" t="s">
+      <c r="L51" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M51" s="7"/>
-      <c r="N51" s="3"/>
+      <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
@@ -2923,11 +2840,11 @@
       <c r="I52">
         <v>50</v>
       </c>
-      <c r="L52" s="13"/>
+      <c r="L52" s="5"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="21" thickBot="1">
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2940,9 +2857,9 @@
       <c r="J53">
         <v>-3</v>
       </c>
-      <c r="L53" s="14"/>
+      <c r="L53" s="5"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="3"/>
+      <c r="N53" s="9"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
@@ -2976,7 +2893,7 @@
         <v>35</v>
       </c>
       <c r="M54" s="7"/>
-      <c r="N54" s="3"/>
+      <c r="N54" s="9"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
@@ -2992,9 +2909,9 @@
         <v>37</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" ht="21" thickBot="1">
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3019,14 +2936,14 @@
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="13">
         <v>54</v>
       </c>
       <c r="L56" t="s">
         <v>32</v>
       </c>
-      <c r="M56" s="20"/>
-      <c r="N56" s="3"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="9"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
@@ -3059,10 +2976,10 @@
       <c r="L57" t="s">
         <v>32</v>
       </c>
-      <c r="M57" s="10" t="s">
+      <c r="M57" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N57" s="3"/>
+      <c r="N57" s="9"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
@@ -3095,8 +3012,8 @@
       <c r="L58" t="s">
         <v>34</v>
       </c>
-      <c r="M58" s="9"/>
-      <c r="N58" s="3"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="9"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
@@ -3111,10 +3028,10 @@
       <c r="L59" t="s">
         <v>35</v>
       </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" ht="21" thickBot="1">
+      <c r="M59" s="10"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3145,8 +3062,8 @@
       <c r="L60" t="s">
         <v>35</v>
       </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="3"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="9"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
@@ -3176,11 +3093,11 @@
       <c r="I61">
         <v>59</v>
       </c>
-      <c r="L61" s="12" t="s">
+      <c r="L61" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M61" s="9"/>
-      <c r="N61" s="3"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="9"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
@@ -3210,11 +3127,11 @@
       <c r="I62">
         <v>60</v>
       </c>
-      <c r="L62" s="13"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" ht="21" thickBot="1">
+      <c r="L62" s="5"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3227,9 +3144,9 @@
       <c r="J63">
         <v>-3</v>
       </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="3"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="9"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
@@ -3259,11 +3176,11 @@
       <c r="I64">
         <v>62</v>
       </c>
-      <c r="L64" s="12" t="s">
+      <c r="L64" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M64" s="9"/>
-      <c r="N64" s="3"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="9"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
@@ -3293,11 +3210,11 @@
       <c r="I65">
         <v>63</v>
       </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="21" thickBot="1">
+      <c r="L65" s="5"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3310,9 +3227,9 @@
       <c r="J66">
         <v>-3</v>
       </c>
-      <c r="L66" s="14"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="3"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
@@ -3342,11 +3259,11 @@
       <c r="I67">
         <v>65</v>
       </c>
-      <c r="L67" s="12" t="s">
+      <c r="L67" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M67" s="9"/>
-      <c r="N67" s="3"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="9"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
@@ -3376,11 +3293,11 @@
       <c r="I68">
         <v>66</v>
       </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" ht="21" thickBot="1">
+      <c r="L68" s="5"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3393,9 +3310,9 @@
       <c r="J69">
         <v>-3</v>
       </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="3"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="9"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
@@ -3425,11 +3342,11 @@
       <c r="I70">
         <v>68</v>
       </c>
-      <c r="L70" s="12" t="s">
+      <c r="L70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M70" s="9"/>
-      <c r="N70" s="3"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="9"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
@@ -3459,11 +3376,11 @@
       <c r="I71">
         <v>69</v>
       </c>
-      <c r="L71" s="13"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" ht="21" thickBot="1">
+      <c r="L71" s="5"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3476,9 +3393,9 @@
       <c r="J72">
         <v>-3</v>
       </c>
-      <c r="L72" s="14"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="3"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="9"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
@@ -3508,11 +3425,11 @@
       <c r="I73">
         <v>71</v>
       </c>
-      <c r="L73" s="12" t="s">
+      <c r="L73" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M73" s="9"/>
-      <c r="N73" s="3"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="9"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
@@ -3542,11 +3459,11 @@
       <c r="I74">
         <v>72</v>
       </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" ht="21" thickBot="1">
+      <c r="L74" s="5"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -3559,9 +3476,9 @@
       <c r="J75">
         <v>-3</v>
       </c>
-      <c r="L75" s="14"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="3"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="9"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
@@ -3591,11 +3508,11 @@
       <c r="I76">
         <v>74</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="L76" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M76" s="9"/>
-      <c r="N76" s="3"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="9"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
@@ -3625,11 +3542,11 @@
       <c r="I77">
         <v>75</v>
       </c>
-      <c r="L77" s="13"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" ht="21" thickBot="1">
+      <c r="L77" s="5"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -3642,9 +3559,9 @@
       <c r="J78">
         <v>-3</v>
       </c>
-      <c r="L78" s="14"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="3"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="9"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
@@ -3674,11 +3591,11 @@
       <c r="I79">
         <v>77</v>
       </c>
-      <c r="L79" s="12" t="s">
+      <c r="L79" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M79" s="9"/>
-      <c r="N79" s="3"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="9"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
@@ -3708,11 +3625,11 @@
       <c r="I80">
         <v>78</v>
       </c>
-      <c r="L80" s="13"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" ht="21" thickBot="1">
+      <c r="L80" s="5"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -3725,9 +3642,9 @@
       <c r="J81">
         <v>-3</v>
       </c>
-      <c r="L81" s="14"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="3"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="9"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
@@ -3757,11 +3674,11 @@
       <c r="I82">
         <v>80</v>
       </c>
-      <c r="L82" s="12" t="s">
+      <c r="L82" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M82" s="9"/>
-      <c r="N82" s="3"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="9"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
@@ -3791,11 +3708,11 @@
       <c r="I83">
         <v>81</v>
       </c>
-      <c r="L83" s="13"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="1:14" ht="21" thickBot="1">
+      <c r="L83" s="5"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3808,9 +3725,9 @@
       <c r="J84">
         <v>-3</v>
       </c>
-      <c r="L84" s="14"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="3"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="9"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
@@ -3843,8 +3760,8 @@
       <c r="L85" t="s">
         <v>35</v>
       </c>
-      <c r="M85" s="9"/>
-      <c r="N85" s="3"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="9"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
@@ -3859,10 +3776,10 @@
       <c r="L86" t="s">
         <v>37</v>
       </c>
-      <c r="M86" s="9"/>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" ht="21" thickBot="1">
+      <c r="M86" s="10"/>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -3887,14 +3804,14 @@
       <c r="H87">
         <v>1</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="13">
         <v>85</v>
       </c>
       <c r="L87" t="s">
         <v>32</v>
       </c>
-      <c r="M87" s="11"/>
-      <c r="N87" s="3"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="9"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
@@ -3927,10 +3844,10 @@
       <c r="L88" t="s">
         <v>32</v>
       </c>
-      <c r="M88" s="10" t="s">
+      <c r="M88" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N88" s="3"/>
+      <c r="N88" s="9"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
@@ -3963,8 +3880,8 @@
       <c r="L89" t="s">
         <v>34</v>
       </c>
-      <c r="M89" s="9"/>
-      <c r="N89" s="3"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="9"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
@@ -3979,10 +3896,10 @@
       <c r="L90" t="s">
         <v>35</v>
       </c>
-      <c r="M90" s="9"/>
-      <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" ht="21" thickBot="1">
+      <c r="M90" s="10"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -4013,8 +3930,8 @@
       <c r="L91" t="s">
         <v>35</v>
       </c>
-      <c r="M91" s="9"/>
-      <c r="N91" s="3"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="9"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
@@ -4044,11 +3961,11 @@
       <c r="I92">
         <v>90</v>
       </c>
-      <c r="L92" s="12" t="s">
+      <c r="L92" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M92" s="9"/>
-      <c r="N92" s="3"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="9"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
@@ -4078,11 +3995,11 @@
       <c r="I93">
         <v>91</v>
       </c>
-      <c r="L93" s="13"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" ht="21" thickBot="1">
+      <c r="L93" s="5"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -4095,9 +4012,9 @@
       <c r="J94">
         <v>-3</v>
       </c>
-      <c r="L94" s="14"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="3"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="9"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
@@ -4127,11 +4044,11 @@
       <c r="I95">
         <v>93</v>
       </c>
-      <c r="L95" s="12" t="s">
+      <c r="L95" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M95" s="9"/>
-      <c r="N95" s="3"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="9"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
@@ -4161,11 +4078,11 @@
       <c r="I96">
         <v>94</v>
       </c>
-      <c r="L96" s="13"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="1:14" ht="21" thickBot="1">
+      <c r="L96" s="5"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -4178,9 +4095,9 @@
       <c r="J97">
         <v>-3</v>
       </c>
-      <c r="L97" s="14"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="3"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="9"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
@@ -4210,11 +4127,11 @@
       <c r="I98">
         <v>96</v>
       </c>
-      <c r="L98" s="12" t="s">
+      <c r="L98" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M98" s="9"/>
-      <c r="N98" s="3"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="9"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
@@ -4244,11 +4161,11 @@
       <c r="I99">
         <v>97</v>
       </c>
-      <c r="L99" s="13"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" ht="21" thickBot="1">
+      <c r="L99" s="5"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -4261,9 +4178,9 @@
       <c r="J100">
         <v>-3</v>
       </c>
-      <c r="L100" s="14"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="3"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="9"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
@@ -4293,11 +4210,11 @@
       <c r="I101">
         <v>99</v>
       </c>
-      <c r="L101" s="12" t="s">
+      <c r="L101" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M101" s="9"/>
-      <c r="N101" s="3"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="9"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
@@ -4327,11 +4244,11 @@
       <c r="I102">
         <v>100</v>
       </c>
-      <c r="L102" s="13"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="1:14" ht="21" thickBot="1">
+      <c r="L102" s="5"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -4344,9 +4261,9 @@
       <c r="J103">
         <v>-3</v>
       </c>
-      <c r="L103" s="14"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="3"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="9"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
@@ -4379,8 +4296,8 @@
       <c r="L104" t="s">
         <v>35</v>
       </c>
-      <c r="M104" s="9"/>
-      <c r="N104" s="3"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="9"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
@@ -4395,10 +4312,10 @@
       <c r="L105" t="s">
         <v>37</v>
       </c>
-      <c r="M105" s="9"/>
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" ht="21" thickBot="1">
+      <c r="M105" s="10"/>
+      <c r="N105" s="9"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4430,7 +4347,7 @@
         <v>32</v>
       </c>
       <c r="M106" s="11"/>
-      <c r="N106" s="3"/>
+      <c r="N106" s="9"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
@@ -4460,11 +4377,11 @@
       <c r="I107">
         <v>105</v>
       </c>
-      <c r="L107" s="15" t="s">
+      <c r="L107" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M107" s="16"/>
-      <c r="N107" s="3"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="9"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
@@ -4494,9 +4411,9 @@
       <c r="I108">
         <v>106</v>
       </c>
-      <c r="L108" s="15"/>
-      <c r="M108" s="16"/>
-      <c r="N108" s="3"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="9"/>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
@@ -4526,9 +4443,9 @@
       <c r="I109">
         <v>107</v>
       </c>
-      <c r="L109" s="15"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="3"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="9"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
@@ -4543,9 +4460,9 @@
       <c r="I110">
         <v>108</v>
       </c>
-      <c r="L110" s="15"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="3"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="9"/>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
@@ -4557,9 +4474,9 @@
       <c r="K111">
         <v>-2</v>
       </c>
-      <c r="L111" s="15"/>
-      <c r="M111" s="16"/>
-      <c r="N111" s="3"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="9"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
@@ -4574,9 +4491,9 @@
       <c r="I112">
         <v>110</v>
       </c>
-      <c r="L112" s="15"/>
-      <c r="M112" s="16"/>
-      <c r="N112" s="3"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="9"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
@@ -4588,9 +4505,9 @@
       <c r="K113">
         <v>-4</v>
       </c>
-      <c r="L113" s="15"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="3"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="9"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
@@ -4605,9 +4522,9 @@
       <c r="I114">
         <v>112</v>
       </c>
-      <c r="L114" s="15"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="3"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="9"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" t="s">
@@ -4619,9 +4536,9 @@
       <c r="K115" t="s">
         <v>22</v>
       </c>
-      <c r="L115" s="15"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="3"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="9"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
@@ -4651,9 +4568,9 @@
       <c r="I116">
         <v>114</v>
       </c>
-      <c r="L116" s="15"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="3"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="9"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
@@ -4683,11 +4600,11 @@
       <c r="I117">
         <v>115</v>
       </c>
-      <c r="L117" s="15"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" ht="21" thickBot="1">
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="9"/>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4712,12 +4629,12 @@
       <c r="H118">
         <v>1</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="13">
         <v>116</v>
       </c>
-      <c r="L118" s="15"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="19"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="9"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" t="s">
@@ -4747,11 +4664,11 @@
       <c r="I119">
         <v>117</v>
       </c>
-      <c r="L119" s="7" t="s">
+      <c r="L119" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
@@ -4760,12 +4677,12 @@
       <c r="E120">
         <v>2</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="13">
         <v>118</v>
       </c>
-      <c r="L120" s="9"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" t="s">
@@ -4809,11 +4726,11 @@
       <c r="I122">
         <v>120</v>
       </c>
-      <c r="L122" s="4" t="s">
+      <c r="L122" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" t="s">
@@ -4857,11 +4774,11 @@
       <c r="I124">
         <v>122</v>
       </c>
-      <c r="L124" s="5" t="s">
+      <c r="L124" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" t="s">
@@ -4891,9 +4808,9 @@
       <c r="I125">
         <v>123</v>
       </c>
-      <c r="L125" s="5"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
@@ -4923,9 +4840,9 @@
       <c r="I126">
         <v>124</v>
       </c>
-      <c r="L126" s="5"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
@@ -4955,9 +4872,9 @@
       <c r="I127">
         <v>125</v>
       </c>
-      <c r="L127" s="5"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" t="s">
@@ -4984,12 +4901,12 @@
       <c r="H128">
         <v>1</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="13">
         <v>126</v>
       </c>
-      <c r="L128" s="5"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" t="s">
@@ -5019,11 +4936,11 @@
       <c r="I129">
         <v>127</v>
       </c>
-      <c r="L129" s="7" t="s">
+      <c r="L129" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" t="s">
@@ -5032,12 +4949,12 @@
       <c r="E130">
         <v>2</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="13">
         <v>128</v>
       </c>
-      <c r="L130" s="9"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" t="s">
@@ -5081,11 +4998,11 @@
       <c r="I132">
         <v>130</v>
       </c>
-      <c r="L132" s="4" t="s">
+      <c r="L132" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" t="s">
@@ -5129,11 +5046,11 @@
       <c r="I134">
         <v>132</v>
       </c>
-      <c r="L134" s="5" t="s">
+      <c r="L134" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" t="s">
@@ -5163,9 +5080,9 @@
       <c r="I135">
         <v>133</v>
       </c>
-      <c r="L135" s="5"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" t="s">
@@ -5195,9 +5112,9 @@
       <c r="I136">
         <v>134</v>
       </c>
-      <c r="L136" s="5"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" t="s">
@@ -5227,9 +5144,9 @@
       <c r="I137">
         <v>135</v>
       </c>
-      <c r="L137" s="5"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" t="s">
@@ -5256,12 +5173,12 @@
       <c r="H138">
         <v>1</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="13">
         <v>136</v>
       </c>
-      <c r="L138" s="5"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" t="s">
@@ -5291,11 +5208,11 @@
       <c r="I139">
         <v>137</v>
       </c>
-      <c r="L139" s="1" t="s">
+      <c r="L139" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" t="s">
@@ -5322,9 +5239,9 @@
       <c r="I140">
         <v>138</v>
       </c>
-      <c r="L140" s="3"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" t="s">
@@ -5333,9 +5250,9 @@
       <c r="I141">
         <v>139</v>
       </c>
-      <c r="L141" s="3"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
       <c r="O141" t="s">
         <v>41</v>
       </c>
@@ -5382,11 +5299,11 @@
       <c r="I143">
         <v>141</v>
       </c>
-      <c r="L143" s="4" t="s">
+      <c r="L143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" t="s">
@@ -5430,11 +5347,11 @@
       <c r="I145">
         <v>143</v>
       </c>
-      <c r="L145" s="5" t="s">
+      <c r="L145" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" t="s">
@@ -5464,9 +5381,9 @@
       <c r="I146">
         <v>144</v>
       </c>
-      <c r="L146" s="5"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" t="s">
@@ -5496,9 +5413,9 @@
       <c r="I147">
         <v>145</v>
       </c>
-      <c r="L147" s="5"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" t="s">
@@ -5528,9 +5445,9 @@
       <c r="I148">
         <v>146</v>
       </c>
-      <c r="L148" s="5"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" t="s">
@@ -5557,12 +5474,12 @@
       <c r="H149">
         <v>1</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="13">
         <v>147</v>
       </c>
-      <c r="L149" s="5"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" t="s">
@@ -5592,11 +5509,11 @@
       <c r="I150">
         <v>148</v>
       </c>
-      <c r="L150" s="1" t="s">
+      <c r="L150" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" t="s">
@@ -5623,9 +5540,9 @@
       <c r="I151">
         <v>149</v>
       </c>
-      <c r="L151" s="3"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" t="s">
@@ -5634,9 +5551,9 @@
       <c r="I152">
         <v>150</v>
       </c>
-      <c r="L152" s="3"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
       <c r="O152" t="s">
         <v>40</v>
       </c>
@@ -5683,11 +5600,11 @@
       <c r="I154">
         <v>152</v>
       </c>
-      <c r="L154" s="4" t="s">
+      <c r="L154" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" t="s">
@@ -5731,11 +5648,11 @@
       <c r="I156">
         <v>154</v>
       </c>
-      <c r="L156" s="5" t="s">
+      <c r="L156" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" t="s">
@@ -5765,9 +5682,9 @@
       <c r="I157">
         <v>155</v>
       </c>
-      <c r="L157" s="5"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" t="s">
@@ -5797,9 +5714,9 @@
       <c r="I158">
         <v>156</v>
       </c>
-      <c r="L158" s="5"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" t="s">
@@ -5829,9 +5746,9 @@
       <c r="I159">
         <v>157</v>
       </c>
-      <c r="L159" s="5"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" t="s">
@@ -5861,9 +5778,9 @@
       <c r="I160">
         <v>158</v>
       </c>
-      <c r="L160" s="5"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
@@ -5893,11 +5810,11 @@
       <c r="I161">
         <v>159</v>
       </c>
-      <c r="L161" s="1" t="s">
+      <c r="L161" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" t="s">
@@ -5924,9 +5841,9 @@
       <c r="I162">
         <v>160</v>
       </c>
-      <c r="L162" s="3"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" t="s">
@@ -5935,15 +5852,44 @@
       <c r="I163">
         <v>161</v>
       </c>
-      <c r="L163" s="3"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
       <c r="O163" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="L161:N163"/>
+    <mergeCell ref="L139:N141"/>
+    <mergeCell ref="L143:N143"/>
+    <mergeCell ref="L145:N149"/>
+    <mergeCell ref="L150:N152"/>
+    <mergeCell ref="L154:N154"/>
+    <mergeCell ref="L156:N160"/>
+    <mergeCell ref="L134:N138"/>
+    <mergeCell ref="M88:M106"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="L107:M118"/>
+    <mergeCell ref="L119:N120"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="L124:N128"/>
+    <mergeCell ref="L129:N130"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="M57:M87"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="L79:L81"/>
+    <mergeCell ref="L82:L84"/>
     <mergeCell ref="L48:L50"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="L2:M2"/>
@@ -5960,35 +5906,6 @@
     <mergeCell ref="L39:L41"/>
     <mergeCell ref="L42:L44"/>
     <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="M57:M87"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="L79:L81"/>
-    <mergeCell ref="L82:L84"/>
-    <mergeCell ref="L134:N138"/>
-    <mergeCell ref="M88:M106"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="L107:M118"/>
-    <mergeCell ref="L119:N120"/>
-    <mergeCell ref="L122:N122"/>
-    <mergeCell ref="L124:N128"/>
-    <mergeCell ref="L129:N130"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="L161:N163"/>
-    <mergeCell ref="L139:N141"/>
-    <mergeCell ref="L143:N143"/>
-    <mergeCell ref="L145:N149"/>
-    <mergeCell ref="L150:N152"/>
-    <mergeCell ref="L154:N154"/>
-    <mergeCell ref="L156:N160"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
